--- a/data/output/Resumen_Pedidos_CONSOLIDADO_13022026.xlsx
+++ b/data/output/Resumen_Pedidos_CONSOLIDADO_13022026.xlsx
@@ -605,25 +605,25 @@
         <v>5</v>
       </c>
       <c r="H3" s="3" t="n">
-        <v>438</v>
+        <v>279</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5549</v>
+        <v>3753</v>
       </c>
       <c r="K3" s="5" t="n">
-        <v>164.7</v>
+        <v>111.4</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O3" s="5" t="n">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>30</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4">
@@ -660,22 +660,22 @@
         <v>5</v>
       </c>
       <c r="H4" s="3" t="n">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="I4" s="3" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1021</v>
+        <v>679</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>65.09999999999999</v>
+        <v>43.4</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N4" s="3" t="n">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>30</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -715,25 +715,25 @@
         <v>5</v>
       </c>
       <c r="H5" s="3" t="n">
-        <v>391</v>
+        <v>179</v>
       </c>
       <c r="I5" s="3" t="n">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2879</v>
+        <v>1419</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>152.9</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="N5" s="3" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="O5" s="5" t="n">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>30</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>143</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -770,25 +770,25 @@
         <v>5</v>
       </c>
       <c r="H6" s="3" t="n">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="I6" s="3" t="n">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>1799</v>
+        <v>761</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>137.2</v>
+        <v>58</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="N6" s="3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O6" s="5" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>30</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -825,25 +825,25 @@
         <v>5</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="I7" s="3" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>391</v>
+        <v>144</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>162</v>
+        <v>59.8</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N7" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" s="5" t="n">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>30</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -880,25 +880,25 @@
         <v>5</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>421</v>
+        <v>128</v>
       </c>
       <c r="I8" s="3" t="n">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>1538</v>
+        <v>646</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>150.6</v>
+        <v>63.3</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="N8" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O8" s="5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>30</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>120</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
@@ -935,25 +935,25 @@
         <v>5</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>465</v>
+        <v>169</v>
       </c>
       <c r="I9" s="3" t="n">
-        <v>161</v>
+        <v>61</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>7154</v>
+        <v>3654</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>131.9</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="N9" s="3" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O9" s="5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>30</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>180</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10">
@@ -990,22 +990,22 @@
         <v>5</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>1054</v>
+        <v>489</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>154.9</v>
+        <v>72</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" s="3" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>30</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -1045,25 +1045,25 @@
         <v>5</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>99</v>
+        <v>39</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>2853</v>
+        <v>921</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>144.1</v>
+        <v>46.5</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" s="5" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>30</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1100,22 +1100,22 @@
         <v>5</v>
       </c>
       <c r="H12" s="3" t="n">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="J12" s="4" t="n">
-        <v>642</v>
+        <v>236</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>169.3</v>
+        <v>62.3</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N12" s="3" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>30</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1155,16 +1155,16 @@
         <v>5</v>
       </c>
       <c r="H13" s="3" t="n">
-        <v>329</v>
+        <v>34</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>2475</v>
+        <v>448</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>148.7</v>
+        <v>26.9</v>
       </c>
       <c r="L13" s="3" t="n">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="3" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O13" s="5" t="n">
         <v>0</v>
@@ -1182,7 +1182,7 @@
         <v>30</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/Resumen_Pedidos_CONSOLIDADO_13022026.xlsx
+++ b/data/output/Resumen_Pedidos_CONSOLIDADO_13022026.xlsx
@@ -837,10 +837,10 @@
         <v>59.8</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N7" s="3" t="n">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>30</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
